--- a/data/trans_orig/IP2501_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2501_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB78D62E-BD7D-46F5-9175-A2C27F639EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{865F93EE-3733-4504-9459-623D50A6AE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4CB89BD2-A271-49D4-BD74-995C1D1A7AF6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2E11CE25-C062-44E3-B82F-27F7876C0FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,256 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>De 2 a 3h</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>Más de 3h</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>De 1 a 2h</t>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
   </si>
   <si>
     <t>48,4%</t>
@@ -98,9 +344,6 @@
     <t>52,28%</t>
   </si>
   <si>
-    <t>De 2 a 3h</t>
-  </si>
-  <si>
     <t>8,77%</t>
   </si>
   <si>
@@ -128,39 +371,6 @@
     <t>10,75%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>Más de 3h</t>
-  </si>
-  <si>
     <t>2,77%</t>
   </si>
   <si>
@@ -188,123 +398,141 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
     <t>43,94%</t>
   </si>
   <si>
@@ -359,33 +587,6 @@
     <t>11,81%</t>
   </si>
   <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
     <t>2,49%</t>
   </si>
   <si>
@@ -413,205 +614,28 @@
     <t>4,13%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>47,12%</t>
@@ -660,30 +684,6 @@
   </si>
   <si>
     <t>10,89%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FC3A64-3AA6-4E14-B3A7-8BAB45B16BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CF6806-B1D0-4D68-942F-92427056E9E3}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1217,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>120541</v>
+        <v>5771</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1232,10 +1232,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>89633</v>
+        <v>7032</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1247,10 +1247,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>210174</v>
+        <v>12803</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1268,10 +1268,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>21842</v>
+        <v>4631</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1283,10 +1283,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>14075</v>
+        <v>5139</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1298,10 +1298,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>35917</v>
+        <v>9770</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1319,10 +1319,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>99771</v>
+        <v>2297</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1334,10 +1334,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>80465</v>
+        <v>3269</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1349,10 +1349,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>180237</v>
+        <v>5566</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1370,10 +1370,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6907</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1385,34 +1385,34 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>6792</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="7">
-        <v>19</v>
-      </c>
-      <c r="N7" s="7">
-        <v>13700</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1421,102 +1421,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>249062</v>
+        <v>12698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>190966</v>
+        <v>15440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>617</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>440028</v>
+        <v>28138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>48930</v>
+        <v>53554</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
+        <v>80</v>
+      </c>
+      <c r="I9" s="7">
+        <v>48315</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>149</v>
+      </c>
+      <c r="N9" s="7">
+        <v>101870</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
-        <v>71</v>
-      </c>
-      <c r="I9" s="7">
-        <v>45689</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="7">
-        <v>138</v>
-      </c>
-      <c r="N9" s="7">
-        <v>94619</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,49 +1525,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>8455</v>
+        <v>48930</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7">
+        <v>71</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45689</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>138</v>
+      </c>
+      <c r="N10" s="7">
+        <v>94619</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7700</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16155</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,49 +1576,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8455</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7700</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="7">
-        <v>53554</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>16155</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>80</v>
-      </c>
-      <c r="I11" s="7">
-        <v>48315</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="7">
-        <v>149</v>
-      </c>
-      <c r="N11" s="7">
-        <v>101870</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,13 +1633,13 @@
         <v>3657</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1648,13 +1648,13 @@
         <v>1753</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -1663,13 +1663,13 @@
         <v>5410</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,13 +1684,13 @@
         <v>114596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -1699,13 +1699,13 @@
         <v>103457</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>319</v>
@@ -1714,66 +1714,66 @@
         <v>218053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="D14" s="7">
-        <v>76648</v>
+        <v>99771</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
+        <v>125</v>
+      </c>
+      <c r="I14" s="7">
+        <v>80465</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>268</v>
+      </c>
+      <c r="N14" s="7">
+        <v>180237</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>100</v>
-      </c>
-      <c r="I14" s="7">
-        <v>72598</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="7">
-        <v>202</v>
-      </c>
-      <c r="N14" s="7">
-        <v>149246</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,49 +1782,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="D15" s="7">
-        <v>17142</v>
+        <v>120541</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="7">
+        <v>122</v>
+      </c>
+      <c r="I15" s="7">
+        <v>89633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>283</v>
+      </c>
+      <c r="N15" s="7">
+        <v>210174</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="7">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7">
-        <v>13427</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="7">
-        <v>43</v>
-      </c>
-      <c r="N15" s="7">
-        <v>30570</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,49 +1833,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21842</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14075</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="7">
-        <v>76322</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>47</v>
+      </c>
+      <c r="N16" s="7">
+        <v>35917</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>111</v>
-      </c>
-      <c r="I16" s="7">
-        <v>79322</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="7">
-        <v>218</v>
-      </c>
-      <c r="N16" s="7">
-        <v>155643</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,49 +1884,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>4344</v>
+        <v>6907</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6792</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>19</v>
+      </c>
+      <c r="N17" s="7">
+        <v>13700</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4065</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="7">
-        <v>11</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8409</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,102 +1935,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="D18" s="7">
-        <v>174456</v>
+        <v>249062</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="I18" s="7">
-        <v>169412</v>
+        <v>190966</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>474</v>
+        <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>343868</v>
+        <v>440028</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D19" s="7">
-        <v>4631</v>
+        <v>61083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="7">
+        <v>78</v>
+      </c>
+      <c r="I19" s="7">
+        <v>59274</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>156</v>
+      </c>
+      <c r="N19" s="7">
+        <v>120357</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5139</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="7">
-        <v>17</v>
-      </c>
-      <c r="N19" s="7">
-        <v>9770</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,49 +2039,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D20" s="7">
-        <v>2297</v>
+        <v>90409</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="7">
+        <v>104</v>
+      </c>
+      <c r="I20" s="7">
+        <v>73361</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>218</v>
+      </c>
+      <c r="N20" s="7">
+        <v>163771</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3269</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" s="7">
-        <v>9</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5566</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,49 +2090,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>5771</v>
+        <v>19872</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="7">
+        <v>27</v>
+      </c>
+      <c r="I21" s="7">
+        <v>20726</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>57</v>
+      </c>
+      <c r="N21" s="7">
+        <v>40598</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>11</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7032</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M21" s="7">
-        <v>19</v>
-      </c>
-      <c r="N21" s="7">
-        <v>12803</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,40 +2141,40 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1844</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>10972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>12816</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>152</v>
@@ -2183,7 +2183,7 @@
         <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,102 +2192,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D23" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="I23" s="7">
-        <v>15440</v>
+        <v>164333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="N23" s="7">
-        <v>28138</v>
+        <v>337542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D24" s="7">
-        <v>90409</v>
+        <v>76322</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>111</v>
+      </c>
+      <c r="I24" s="7">
+        <v>79322</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="7">
-        <v>104</v>
-      </c>
-      <c r="I24" s="7">
-        <v>73361</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>218</v>
       </c>
       <c r="N24" s="7">
-        <v>163771</v>
+        <v>155643</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,49 +2296,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7">
-        <v>19872</v>
+        <v>76648</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>100</v>
+      </c>
+      <c r="I25" s="7">
+        <v>72598</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="7">
-        <v>27</v>
-      </c>
-      <c r="I25" s="7">
-        <v>20726</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>202</v>
+      </c>
+      <c r="N25" s="7">
+        <v>149246</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="7">
-        <v>57</v>
-      </c>
-      <c r="N25" s="7">
-        <v>40598</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,49 +2347,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>61083</v>
+        <v>17142</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>20</v>
+      </c>
+      <c r="I26" s="7">
+        <v>13427</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="7">
-        <v>78</v>
-      </c>
-      <c r="I26" s="7">
-        <v>59274</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>43</v>
+      </c>
+      <c r="N26" s="7">
+        <v>30570</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M26" s="7">
-        <v>156</v>
-      </c>
-      <c r="N26" s="7">
-        <v>120357</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2398,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="7">
-        <v>1844</v>
+        <v>4344</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>184</v>
@@ -2413,10 +2413,10 @@
         <v>185</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I27" s="7">
-        <v>10972</v>
+        <v>4065</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>186</v>
@@ -2428,10 +2428,10 @@
         <v>188</v>
       </c>
       <c r="M27" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N27" s="7">
-        <v>12816</v>
+        <v>8409</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>189</v>
@@ -2449,49 +2449,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D28" s="7">
-        <v>173208</v>
+        <v>174456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="I28" s="7">
-        <v>164333</v>
+        <v>169412</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="N28" s="7">
-        <v>337542</v>
+        <v>343868</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,10 +2502,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="D29" s="7">
-        <v>341159</v>
+        <v>296501</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>192</v>
@@ -2517,10 +2517,10 @@
         <v>194</v>
       </c>
       <c r="H29" s="7">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I29" s="7">
-        <v>286421</v>
+        <v>274408</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>195</v>
@@ -2529,22 +2529,22 @@
         <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
-        <v>858</v>
+        <v>810</v>
       </c>
       <c r="N29" s="7">
-        <v>627579</v>
+        <v>570909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,40 +2553,40 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="D30" s="7">
-        <v>69608</v>
+        <v>341159</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
-        <v>85</v>
+        <v>406</v>
       </c>
       <c r="I30" s="7">
-        <v>59197</v>
+        <v>286421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
-        <v>180</v>
+        <v>858</v>
       </c>
       <c r="N30" s="7">
-        <v>128805</v>
+        <v>627579</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>205</v>
@@ -2595,7 +2595,7 @@
         <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,49 +2604,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="D31" s="7">
-        <v>296501</v>
+        <v>69608</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>85</v>
+      </c>
+      <c r="I31" s="7">
+        <v>59197</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H31" s="7">
-        <v>405</v>
-      </c>
-      <c r="I31" s="7">
-        <v>274408</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>180</v>
+      </c>
+      <c r="N31" s="7">
+        <v>128805</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M31" s="7">
-        <v>810</v>
-      </c>
-      <c r="N31" s="7">
-        <v>570909</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,7 +2697,7 @@
         <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2712,13 @@
         <v>724020</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>929</v>
@@ -2727,13 +2727,13 @@
         <v>643608</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
         <v>1902</v>
@@ -2742,13 +2742,13 @@
         <v>1367628</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
